--- a/data/raw/Histograma de metacategorías.xlsx
+++ b/data/raw/Histograma de metacategorías.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juancarlosvillasenorderbez/GitHub/resilient_ssf/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcvd/GitHub/resilient_ssf/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E40C30B-6A8B-9043-8A26-952A74171624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995D7715-F67A-B146-85CA-D4342E2885F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{E2C84A3E-2C4B-4029-A386-7521530E15D6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19400" activeTab="1" xr2:uid="{E2C84A3E-2C4B-4029-A386-7521530E15D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <t>COVID-19 Pandemic</t>
   </si>
   <si>
-    <t>Nacionales de Abulón</t>
+    <t>Productores Nacionales de Abulón</t>
   </si>
 </sst>
 </file>
@@ -6504,7 +6504,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
